--- a/src/test/resources/demo/demo.xlsx
+++ b/src/test/resources/demo/demo.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>字符串标题</t>
   </si>
@@ -53,6 +54,36 @@
   </si>
   <si>
     <t>字符串9</t>
+  </si>
+  <si>
+    <t>表2字符串0</t>
+  </si>
+  <si>
+    <t>表2字符串1</t>
+  </si>
+  <si>
+    <t>表2字符串2</t>
+  </si>
+  <si>
+    <t>表2字符串3</t>
+  </si>
+  <si>
+    <t>表2字符串4</t>
+  </si>
+  <si>
+    <t>表2字符串5</t>
+  </si>
+  <si>
+    <t>表2字符串6</t>
+  </si>
+  <si>
+    <t>表2字符串7</t>
+  </si>
+  <si>
+    <t>表2字符串8</t>
+  </si>
+  <si>
+    <t>表2字符串9</t>
   </si>
 </sst>
 </file>
@@ -60,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,15 +106,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,15 +142,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,13 +225,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -198,21 +244,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,55 +258,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,127 +426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,11 +454,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,6 +466,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,6 +496,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,30 +549,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,8 +1059,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1160,4 +1191,142 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43832.0423726852</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43833.0423726852</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43834.0423726852</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43835.0423726852</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43836.0423726852</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43837.0423726852</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43838.0423726852</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43839.0423726852</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43840.0423726852</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/demo/demo.xlsx
+++ b/src/test/resources/demo/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,22 +105,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,8 +136,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,23 +152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,7 +167,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,15 +205,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -233,17 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,19 +258,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,163 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,9 +454,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +502,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -502,26 +534,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,23 +544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,133 +569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,11 +1059,14 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1198,7 +1201,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/demo/demo.xlsx
+++ b/src/test/resources/demo/demo.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roane/workspace/other/easyexcel/src/test/resources/demo/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D22F6D1-C6BF-AD46-B08A-A1123A807E8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="28800" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,52 +14,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Yu Likai</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{870F2B22-3FD2-A44A-B09D-33F677872B4F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>string</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9722A536-E96D-9240-8EA9-98DAD82B58E2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{74A5D9A2-7CCB-3C42-AADE-7E59C2A2212F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>doubleData</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
@@ -141,8 +89,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,27 +105,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -179,9 +451,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -196,17 +710,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -220,7 +778,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -493,23 +1051,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -528,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -539,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>43832.042372685202</v>
+        <v>43832.0423726852</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -550,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>43833.042372685202</v>
+        <v>43833.0423726852</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -561,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>43834.042372685202</v>
+        <v>43834.0423726852</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -572,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>43835.042372685202</v>
+        <v>43835.0423726852</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -583,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>43836.042372685202</v>
+        <v>43836.0423726852</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -594,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>43837.042372685202</v>
+        <v>43837.0423726852</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -605,7 +1163,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>43838.042372685202</v>
+        <v>43838.0423726852</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -616,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>43839.042372685202</v>
+        <v>43839.0423726852</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -627,29 +1185,29 @@
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>43840.042372685202</v>
+        <v>43840.0423726852</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -667,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -678,7 +1236,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>43832.042372685202</v>
+        <v>43832.0423726852</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -689,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>43833.042372685202</v>
+        <v>43833.0423726852</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -700,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>43834.042372685202</v>
+        <v>43834.0423726852</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -711,7 +1269,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>43835.042372685202</v>
+        <v>43835.0423726852</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -722,7 +1280,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>43836.042372685202</v>
+        <v>43836.0423726852</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -733,7 +1291,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>43837.042372685202</v>
+        <v>43837.0423726852</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -744,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>43838.042372685202</v>
+        <v>43838.0423726852</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -755,7 +1313,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>43839.042372685202</v>
+        <v>43839.0423726852</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -766,14 +1324,14 @@
         <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>43840.042372685202</v>
+        <v>43840.0423726852</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>